--- a/Code/Results/Cases/Case_4_177/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_177/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.026079640114727</v>
+        <v>1.069596262564414</v>
       </c>
       <c r="D2">
-        <v>1.044460418391766</v>
+        <v>1.072208229385172</v>
       </c>
       <c r="E2">
-        <v>1.043776082999191</v>
+        <v>1.082310250929075</v>
       </c>
       <c r="F2">
-        <v>1.050496333396002</v>
+        <v>1.087425661731959</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059088114376573</v>
+        <v>1.049721509348661</v>
       </c>
       <c r="J2">
-        <v>1.04750734271267</v>
+        <v>1.07453018593762</v>
       </c>
       <c r="K2">
-        <v>1.055333242193159</v>
+        <v>1.074903354595115</v>
       </c>
       <c r="L2">
-        <v>1.054657462182018</v>
+        <v>1.084978800921521</v>
       </c>
       <c r="M2">
-        <v>1.061294298534785</v>
+        <v>1.090080957938863</v>
       </c>
       <c r="N2">
-        <v>1.017640819689865</v>
+        <v>1.028219226534989</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.033908182614794</v>
+        <v>1.071145700132907</v>
       </c>
       <c r="D3">
-        <v>1.050775069178847</v>
+        <v>1.073459154800193</v>
       </c>
       <c r="E3">
-        <v>1.051108810478283</v>
+        <v>1.083810287952381</v>
       </c>
       <c r="F3">
-        <v>1.057769619697832</v>
+        <v>1.088909797004621</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061813967283881</v>
+        <v>1.050138724434446</v>
       </c>
       <c r="J3">
-        <v>1.053515300655487</v>
+        <v>1.075734016557425</v>
       </c>
       <c r="K3">
-        <v>1.060797017462954</v>
+        <v>1.075969909923792</v>
       </c>
       <c r="L3">
-        <v>1.061126983942898</v>
+        <v>1.086295799571925</v>
       </c>
       <c r="M3">
-        <v>1.067713068313765</v>
+        <v>1.091383061924657</v>
       </c>
       <c r="N3">
-        <v>1.019837948684487</v>
+        <v>1.028643765535135</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.038819368151457</v>
+        <v>1.07214677818707</v>
       </c>
       <c r="D4">
-        <v>1.054737819735355</v>
+        <v>1.074267008536865</v>
       </c>
       <c r="E4">
-        <v>1.055714454309211</v>
+        <v>1.084779725124916</v>
       </c>
       <c r="F4">
-        <v>1.062337944347104</v>
+        <v>1.089868912805929</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063508285222109</v>
+        <v>1.050406336410323</v>
       </c>
       <c r="J4">
-        <v>1.057279626617587</v>
+        <v>1.076511042660754</v>
       </c>
       <c r="K4">
-        <v>1.064217616696847</v>
+        <v>1.076657902056601</v>
       </c>
       <c r="L4">
-        <v>1.065183926714647</v>
+        <v>1.087146283050843</v>
       </c>
       <c r="M4">
-        <v>1.071738007863803</v>
+        <v>1.092223870542934</v>
       </c>
       <c r="N4">
-        <v>1.021212070998858</v>
+        <v>1.028917271206506</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.040849200867251</v>
+        <v>1.072567277764295</v>
       </c>
       <c r="D5">
-        <v>1.056375862726685</v>
+        <v>1.074606258122804</v>
       </c>
       <c r="E5">
-        <v>1.057619250448419</v>
+        <v>1.085186999559972</v>
       </c>
       <c r="F5">
-        <v>1.064227298294999</v>
+        <v>1.090271840302838</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064204720755777</v>
+        <v>1.050518279415545</v>
       </c>
       <c r="J5">
-        <v>1.058834256912069</v>
+        <v>1.076837248002072</v>
       </c>
       <c r="K5">
-        <v>1.065629603579482</v>
+        <v>1.076946626954748</v>
       </c>
       <c r="L5">
-        <v>1.066860224286608</v>
+        <v>1.087503425317982</v>
       </c>
       <c r="M5">
-        <v>1.073401030534968</v>
+        <v>1.092576936465576</v>
       </c>
       <c r="N5">
-        <v>1.021778939189116</v>
+        <v>1.029031968049303</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.041188034938459</v>
+        <v>1.072637860995288</v>
       </c>
       <c r="D6">
-        <v>1.056649305692396</v>
+        <v>1.074663197967509</v>
       </c>
       <c r="E6">
-        <v>1.057937283766756</v>
+        <v>1.085255366698659</v>
       </c>
       <c r="F6">
-        <v>1.064542752539015</v>
+        <v>1.090339477106216</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064320747015949</v>
+        <v>1.050537042309651</v>
       </c>
       <c r="J6">
-        <v>1.059093694757539</v>
+        <v>1.076891992730757</v>
       </c>
       <c r="K6">
-        <v>1.065865195862057</v>
+        <v>1.07699507556263</v>
       </c>
       <c r="L6">
-        <v>1.067140014220667</v>
+        <v>1.08756336775441</v>
       </c>
       <c r="M6">
-        <v>1.073678601490615</v>
+        <v>1.092636193931139</v>
       </c>
       <c r="N6">
-        <v>1.021873500592425</v>
+        <v>1.02905120950878</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.038846625046471</v>
+        <v>1.072152398302335</v>
       </c>
       <c r="D7">
-        <v>1.054759814936889</v>
+        <v>1.074271543061465</v>
       </c>
       <c r="E7">
-        <v>1.055740027355299</v>
+        <v>1.084785168225129</v>
       </c>
       <c r="F7">
-        <v>1.06236331011776</v>
+        <v>1.089874297853177</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063517652346938</v>
+        <v>1.050407834399785</v>
       </c>
       <c r="J7">
-        <v>1.057300507237412</v>
+        <v>1.076515403218195</v>
       </c>
       <c r="K7">
-        <v>1.064236584191952</v>
+        <v>1.076661761998256</v>
       </c>
       <c r="L7">
-        <v>1.065206438234371</v>
+        <v>1.087151056770692</v>
       </c>
       <c r="M7">
-        <v>1.071760341325646</v>
+        <v>1.092228589830177</v>
       </c>
       <c r="N7">
-        <v>1.021219687282268</v>
+        <v>1.028918804908219</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.028758649476528</v>
+        <v>1.070120220228058</v>
       </c>
       <c r="D8">
-        <v>1.046621017734193</v>
+        <v>1.072631315864044</v>
       </c>
       <c r="E8">
-        <v>1.046284209003423</v>
+        <v>1.082817445627532</v>
       </c>
       <c r="F8">
-        <v>1.052984117218204</v>
+        <v>1.087927488837407</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060024209634611</v>
+        <v>1.049862998081271</v>
       </c>
       <c r="J8">
-        <v>1.049564287914159</v>
+        <v>1.074937430126083</v>
       </c>
       <c r="K8">
-        <v>1.057204444844799</v>
+        <v>1.075264248449352</v>
       </c>
       <c r="L8">
-        <v>1.056871708905813</v>
+        <v>1.08542424335122</v>
       </c>
       <c r="M8">
-        <v>1.063491206817196</v>
+        <v>1.090521374208528</v>
       </c>
       <c r="N8">
-        <v>1.018393560877821</v>
+        <v>1.028362951165024</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009692839622996</v>
+        <v>1.066527314215535</v>
       </c>
       <c r="D9">
-        <v>1.031255047230388</v>
+        <v>1.069728673861391</v>
       </c>
       <c r="E9">
-        <v>1.028461866382263</v>
+        <v>1.07934064985487</v>
       </c>
       <c r="F9">
-        <v>1.035306919331938</v>
+        <v>1.084487310360036</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053297058582325</v>
+        <v>1.048884784461355</v>
       </c>
       <c r="J9">
-        <v>1.034907901258554</v>
+        <v>1.072141754263163</v>
       </c>
       <c r="K9">
-        <v>1.043860598739494</v>
+        <v>1.072785012466049</v>
       </c>
       <c r="L9">
-        <v>1.041109450858201</v>
+        <v>1.082368037838703</v>
       </c>
       <c r="M9">
-        <v>1.047852009058818</v>
+        <v>1.087499426627026</v>
       </c>
       <c r="N9">
-        <v>1.013020536123289</v>
+        <v>1.027374180162719</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9959454840171389</v>
+        <v>1.064123489124628</v>
       </c>
       <c r="D10">
-        <v>1.020195013292645</v>
+        <v>1.067784905997717</v>
       </c>
       <c r="E10">
-        <v>1.015650678064117</v>
+        <v>1.077015997014792</v>
       </c>
       <c r="F10">
-        <v>1.022601502304873</v>
+        <v>1.082186923432553</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04836636391151</v>
+        <v>1.048220284457435</v>
       </c>
       <c r="J10">
-        <v>1.024320895635074</v>
+        <v>1.070267430203518</v>
       </c>
       <c r="K10">
-        <v>1.034208968938505</v>
+        <v>1.071120656634679</v>
       </c>
       <c r="L10">
-        <v>1.029742989676418</v>
+        <v>1.080321178486777</v>
       </c>
       <c r="M10">
-        <v>1.036574328175583</v>
+        <v>1.085475230902013</v>
       </c>
       <c r="N10">
-        <v>1.00912880268657</v>
+        <v>1.026708616564562</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9897016979235214</v>
+        <v>1.063080460854707</v>
       </c>
       <c r="D11">
-        <v>1.015178652133038</v>
+        <v>1.066941093132331</v>
       </c>
       <c r="E11">
-        <v>1.009843135762232</v>
+        <v>1.076007683942269</v>
       </c>
       <c r="F11">
-        <v>1.01684249546971</v>
+        <v>1.081189085954198</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046109182076052</v>
+        <v>1.047929581508114</v>
       </c>
       <c r="J11">
-        <v>1.01950926385531</v>
+        <v>1.069453238142387</v>
       </c>
       <c r="K11">
-        <v>1.029819887950235</v>
+        <v>1.070397159484684</v>
       </c>
       <c r="L11">
-        <v>1.02458178201093</v>
+        <v>1.079432544670458</v>
       </c>
       <c r="M11">
-        <v>1.031453626365949</v>
+        <v>1.084596371474035</v>
       </c>
       <c r="N11">
-        <v>1.007358152937185</v>
+        <v>1.026418874864942</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9873342382086513</v>
+        <v>1.062692699667028</v>
       </c>
       <c r="D12">
-        <v>1.013277850024135</v>
+        <v>1.066627333441672</v>
       </c>
       <c r="E12">
-        <v>1.007642908890423</v>
+        <v>1.075632883791169</v>
       </c>
       <c r="F12">
-        <v>1.014660768824756</v>
+        <v>1.080818172372101</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045250781489146</v>
+        <v>1.047821152087778</v>
       </c>
       <c r="J12">
-        <v>1.017684479954535</v>
+        <v>1.069150412973148</v>
       </c>
       <c r="K12">
-        <v>1.028155013147022</v>
+        <v>1.070127989970217</v>
       </c>
       <c r="L12">
-        <v>1.022625133209217</v>
+        <v>1.079102108216591</v>
       </c>
       <c r="M12">
-        <v>1.029512380396743</v>
+        <v>1.084269559980762</v>
       </c>
       <c r="N12">
-        <v>1.006686411877638</v>
+        <v>1.026311016541865</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9878443287594691</v>
+        <v>1.062775891037605</v>
       </c>
       <c r="D13">
-        <v>1.013687334612194</v>
+        <v>1.066694651011265</v>
       </c>
       <c r="E13">
-        <v>1.008116882609505</v>
+        <v>1.075713291957368</v>
       </c>
       <c r="F13">
-        <v>1.015130751737078</v>
+        <v>1.080897747057483</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045435844271575</v>
+        <v>1.047844430954299</v>
       </c>
       <c r="J13">
-        <v>1.018077659888927</v>
+        <v>1.069215388134867</v>
       </c>
       <c r="K13">
-        <v>1.028513752635924</v>
+        <v>1.070185747333331</v>
       </c>
       <c r="L13">
-        <v>1.023046693467601</v>
+        <v>1.079173004303302</v>
       </c>
       <c r="M13">
-        <v>1.029930619694183</v>
+        <v>1.08433967875515</v>
       </c>
       <c r="N13">
-        <v>1.006831159148914</v>
+        <v>1.026334163212908</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9895070154082661</v>
+        <v>1.063048415267209</v>
       </c>
       <c r="D14">
-        <v>1.015022317349786</v>
+        <v>1.066915164432791</v>
       </c>
       <c r="E14">
-        <v>1.009662167327151</v>
+        <v>1.075976708359317</v>
       </c>
       <c r="F14">
-        <v>1.016663046252994</v>
+        <v>1.081158431727391</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046038644299378</v>
+        <v>1.04792062788458</v>
       </c>
       <c r="J14">
-        <v>1.019359213415186</v>
+        <v>1.069428214683334</v>
       </c>
       <c r="K14">
-        <v>1.029682993337188</v>
+        <v>1.070374918669275</v>
       </c>
       <c r="L14">
-        <v>1.02442087400151</v>
+        <v>1.079405238046746</v>
       </c>
       <c r="M14">
-        <v>1.031293983974256</v>
+        <v>1.084569364605495</v>
       </c>
       <c r="N14">
-        <v>1.007302920603836</v>
+        <v>1.026409964079435</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9905249135329202</v>
+        <v>1.06321628187115</v>
       </c>
       <c r="D15">
-        <v>1.015839766539629</v>
+        <v>1.067050986081334</v>
       </c>
       <c r="E15">
-        <v>1.010608436344629</v>
+        <v>1.07613897214701</v>
       </c>
       <c r="F15">
-        <v>1.017601376112441</v>
+        <v>1.081319011811037</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0464073487479</v>
+        <v>1.047967515682351</v>
       </c>
       <c r="J15">
-        <v>1.020143738989043</v>
+        <v>1.069559291173812</v>
       </c>
       <c r="K15">
-        <v>1.030398721254466</v>
+        <v>1.070491416129163</v>
       </c>
       <c r="L15">
-        <v>1.025262196293735</v>
+        <v>1.079548277197657</v>
       </c>
       <c r="M15">
-        <v>1.032128690879185</v>
+        <v>1.084710833168195</v>
       </c>
       <c r="N15">
-        <v>1.007591688931018</v>
+        <v>1.026456636225742</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.996353360281476</v>
+        <v>1.064192665187058</v>
       </c>
       <c r="D16">
-        <v>1.020522868022931</v>
+        <v>1.067840861195685</v>
       </c>
       <c r="E16">
-        <v>1.016030298121248</v>
+        <v>1.077082878370861</v>
       </c>
       <c r="F16">
-        <v>1.022977963850457</v>
+        <v>1.082253108909581</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048513457855246</v>
+        <v>1.048239514607965</v>
       </c>
       <c r="J16">
-        <v>1.024635160147481</v>
+        <v>1.070321410064543</v>
       </c>
       <c r="K16">
-        <v>1.034495585829083</v>
+        <v>1.071168612764928</v>
       </c>
       <c r="L16">
-        <v>1.030080183381183</v>
+        <v>1.080380104393251</v>
       </c>
       <c r="M16">
-        <v>1.036908880972979</v>
+        <v>1.085533507307008</v>
       </c>
       <c r="N16">
-        <v>1.009244414972842</v>
+        <v>1.026727812912825</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9999284703881467</v>
+        <v>1.064804540270699</v>
       </c>
       <c r="D17">
-        <v>1.023397374638005</v>
+        <v>1.068335748676058</v>
       </c>
       <c r="E17">
-        <v>1.019358999511464</v>
+        <v>1.077674498228059</v>
       </c>
       <c r="F17">
-        <v>1.026279038598006</v>
+        <v>1.082838567435495</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049800777227394</v>
+        <v>1.048409334939922</v>
       </c>
       <c r="J17">
-        <v>1.027389397651115</v>
+        <v>1.07079876626005</v>
       </c>
       <c r="K17">
-        <v>1.03700723379416</v>
+        <v>1.071592640541492</v>
       </c>
       <c r="L17">
-        <v>1.033035901056037</v>
+        <v>1.080901257984385</v>
       </c>
       <c r="M17">
-        <v>1.039841473077949</v>
+        <v>1.086048909092771</v>
       </c>
       <c r="N17">
-        <v>1.010257440008002</v>
+        <v>1.02689749843683</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001986021602909</v>
+        <v>1.065161229305844</v>
       </c>
       <c r="D18">
-        <v>1.025052344777362</v>
+        <v>1.068624201358257</v>
       </c>
       <c r="E18">
-        <v>1.021275762256691</v>
+        <v>1.078019414438012</v>
       </c>
       <c r="F18">
-        <v>1.028179946562348</v>
+        <v>1.083179886770424</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050539983592211</v>
+        <v>1.048508101915399</v>
       </c>
       <c r="J18">
-        <v>1.028974208827066</v>
+        <v>1.07107694997155</v>
       </c>
       <c r="K18">
-        <v>1.03845221365419</v>
+        <v>1.071839697132633</v>
       </c>
       <c r="L18">
-        <v>1.034737083137483</v>
+        <v>1.08120501378331</v>
       </c>
       <c r="M18">
-        <v>1.041529361947421</v>
+        <v>1.086349306174168</v>
       </c>
       <c r="N18">
-        <v>1.010840159583636</v>
+        <v>1.026996323933287</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002683013217303</v>
+        <v>1.065282816183647</v>
       </c>
       <c r="D19">
-        <v>1.025613063819145</v>
+        <v>1.068722521407018</v>
       </c>
       <c r="E19">
-        <v>1.021925231462136</v>
+        <v>1.078136994124438</v>
       </c>
       <c r="F19">
-        <v>1.028824051992824</v>
+        <v>1.083296239486917</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050790101135478</v>
+        <v>1.04854173042725</v>
       </c>
       <c r="J19">
-        <v>1.029511004429585</v>
+        <v>1.071171761243733</v>
       </c>
       <c r="K19">
-        <v>1.038941604124983</v>
+        <v>1.071923891175108</v>
       </c>
       <c r="L19">
-        <v>1.035313369057403</v>
+        <v>1.08130854886713</v>
       </c>
       <c r="M19">
-        <v>1.042101147077651</v>
+        <v>1.086451695373943</v>
       </c>
       <c r="N19">
-        <v>1.011037501403713</v>
+        <v>1.027029995649616</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9995477957682591</v>
+        <v>1.064738913385276</v>
       </c>
       <c r="D20">
-        <v>1.023091232607505</v>
+        <v>1.068282673376913</v>
       </c>
       <c r="E20">
-        <v>1.019004454641696</v>
+        <v>1.077611040214256</v>
       </c>
       <c r="F20">
-        <v>1.025927430567417</v>
+        <v>1.082775770790596</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049663877695988</v>
+        <v>1.048391144467165</v>
       </c>
       <c r="J20">
-        <v>1.027096160266237</v>
+        <v>1.07074757638121</v>
       </c>
       <c r="K20">
-        <v>1.036739849362322</v>
+        <v>1.071547174519781</v>
       </c>
       <c r="L20">
-        <v>1.032721166994404</v>
+        <v>1.080845366393288</v>
       </c>
       <c r="M20">
-        <v>1.039529199627883</v>
+        <v>1.085993635006238</v>
       </c>
       <c r="N20">
-        <v>1.010149604242883</v>
+        <v>1.026879308238235</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9890187667248926</v>
+        <v>1.062968172977017</v>
       </c>
       <c r="D21">
-        <v>1.014630262757798</v>
+        <v>1.066850237894862</v>
       </c>
       <c r="E21">
-        <v>1.009208342363075</v>
+        <v>1.075899146258413</v>
       </c>
       <c r="F21">
-        <v>1.01621303301128</v>
+        <v>1.08108167417677</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045861700576651</v>
+        <v>1.047898202219163</v>
       </c>
       <c r="J21">
-        <v>1.018982893283241</v>
+        <v>1.069365553618359</v>
       </c>
       <c r="K21">
-        <v>1.02933966214115</v>
+        <v>1.070319224363273</v>
       </c>
       <c r="L21">
-        <v>1.02401733498102</v>
+        <v>1.079336860954268</v>
       </c>
       <c r="M21">
-        <v>1.030893619795494</v>
+        <v>1.084501737959338</v>
       </c>
       <c r="N21">
-        <v>1.007164396723666</v>
+        <v>1.02638764913263</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9821169170739406</v>
+        <v>1.061852900441199</v>
       </c>
       <c r="D22">
-        <v>1.009091513877875</v>
+        <v>1.065947695825472</v>
       </c>
       <c r="E22">
-        <v>1.002797690704944</v>
+        <v>1.074821256819835</v>
       </c>
       <c r="F22">
-        <v>1.009856527263249</v>
+        <v>1.080014948520852</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043354523119298</v>
+        <v>1.047585668166442</v>
       </c>
       <c r="J22">
-        <v>1.013662589673306</v>
+        <v>1.068494314542606</v>
       </c>
       <c r="K22">
-        <v>1.024484992273899</v>
+        <v>1.069544669461212</v>
       </c>
       <c r="L22">
-        <v>1.018313927787524</v>
+        <v>1.078386326657866</v>
       </c>
       <c r="M22">
-        <v>1.025235220993876</v>
+        <v>1.083561613237493</v>
       </c>
       <c r="N22">
-        <v>1.005205507931245</v>
+        <v>1.026077160472442</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9858041141623566</v>
+        <v>1.062444314586896</v>
       </c>
       <c r="D23">
-        <v>1.012049716937738</v>
+        <v>1.066426334214278</v>
       </c>
       <c r="E23">
-        <v>1.006221405550502</v>
+        <v>1.07539281667764</v>
       </c>
       <c r="F23">
-        <v>1.01325125285577</v>
+        <v>1.080580592644376</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044695284139452</v>
+        <v>1.047751596062148</v>
       </c>
       <c r="J23">
-        <v>1.016505012704238</v>
+        <v>1.068956396098116</v>
       </c>
       <c r="K23">
-        <v>1.027078814582098</v>
+        <v>1.069955514338535</v>
       </c>
       <c r="L23">
-        <v>1.021360634911952</v>
+        <v>1.078890422508296</v>
       </c>
       <c r="M23">
-        <v>1.028257851892159</v>
+        <v>1.084060193818016</v>
       </c>
       <c r="N23">
-        <v>1.006252167325243</v>
+        <v>1.026241886510371</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9997198916655465</v>
+        <v>1.064768567990804</v>
       </c>
       <c r="D24">
-        <v>1.023229631765889</v>
+        <v>1.068306656459271</v>
       </c>
       <c r="E24">
-        <v>1.019164734592728</v>
+        <v>1.077639714671238</v>
       </c>
       <c r="F24">
-        <v>1.026086382690214</v>
+        <v>1.082804146412948</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049725772629828</v>
+        <v>1.048399364843711</v>
       </c>
       <c r="J24">
-        <v>1.027228728394465</v>
+        <v>1.070770707656936</v>
       </c>
       <c r="K24">
-        <v>1.036860730525974</v>
+        <v>1.071567719497461</v>
       </c>
       <c r="L24">
-        <v>1.032863452081464</v>
+        <v>1.080870622090677</v>
       </c>
       <c r="M24">
-        <v>1.039670372269699</v>
+        <v>1.086018611691604</v>
       </c>
       <c r="N24">
-        <v>1.010198355714122</v>
+        <v>1.026887528067094</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014790846163837</v>
+        <v>1.067457635905604</v>
       </c>
       <c r="D25">
-        <v>1.035361095503244</v>
+        <v>1.070480577914188</v>
       </c>
       <c r="E25">
-        <v>1.033221152515779</v>
+        <v>1.080240647762946</v>
       </c>
       <c r="F25">
-        <v>1.040027274093942</v>
+        <v>1.0853778683989</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055109802161705</v>
+        <v>1.049139842441006</v>
       </c>
       <c r="J25">
-        <v>1.038830490244373</v>
+        <v>1.072866331941258</v>
       </c>
       <c r="K25">
-        <v>1.047434200658219</v>
+        <v>1.073427961491892</v>
       </c>
       <c r="L25">
-        <v>1.045324748127232</v>
+        <v>1.083159764098281</v>
       </c>
       <c r="M25">
-        <v>1.052034443984441</v>
+        <v>1.08828232800347</v>
       </c>
       <c r="N25">
-        <v>1.014460518961457</v>
+        <v>1.027630915897657</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_177/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_177/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.069596262564414</v>
+        <v>1.026079640114729</v>
       </c>
       <c r="D2">
-        <v>1.072208229385172</v>
+        <v>1.044460418391768</v>
       </c>
       <c r="E2">
-        <v>1.082310250929075</v>
+        <v>1.043776082999193</v>
       </c>
       <c r="F2">
-        <v>1.087425661731959</v>
+        <v>1.050496333396003</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049721509348661</v>
+        <v>1.059088114376573</v>
       </c>
       <c r="J2">
-        <v>1.07453018593762</v>
+        <v>1.047507342712671</v>
       </c>
       <c r="K2">
-        <v>1.074903354595115</v>
+        <v>1.055333242193161</v>
       </c>
       <c r="L2">
-        <v>1.084978800921521</v>
+        <v>1.05465746218202</v>
       </c>
       <c r="M2">
-        <v>1.090080957938863</v>
+        <v>1.061294298534786</v>
       </c>
       <c r="N2">
-        <v>1.028219226534989</v>
+        <v>1.017640819689866</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.071145700132907</v>
+        <v>1.033908182614793</v>
       </c>
       <c r="D3">
-        <v>1.073459154800193</v>
+        <v>1.050775069178846</v>
       </c>
       <c r="E3">
-        <v>1.083810287952381</v>
+        <v>1.051108810478282</v>
       </c>
       <c r="F3">
-        <v>1.088909797004621</v>
+        <v>1.05776961969783</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050138724434446</v>
+        <v>1.06181396728388</v>
       </c>
       <c r="J3">
-        <v>1.075734016557425</v>
+        <v>1.053515300655485</v>
       </c>
       <c r="K3">
-        <v>1.075969909923792</v>
+        <v>1.060797017462953</v>
       </c>
       <c r="L3">
-        <v>1.086295799571925</v>
+        <v>1.061126983942896</v>
       </c>
       <c r="M3">
-        <v>1.091383061924657</v>
+        <v>1.067713068313763</v>
       </c>
       <c r="N3">
-        <v>1.028643765535135</v>
+        <v>1.019837948684486</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.07214677818707</v>
+        <v>1.038819368151457</v>
       </c>
       <c r="D4">
-        <v>1.074267008536865</v>
+        <v>1.054737819735355</v>
       </c>
       <c r="E4">
-        <v>1.084779725124916</v>
+        <v>1.055714454309212</v>
       </c>
       <c r="F4">
-        <v>1.089868912805929</v>
+        <v>1.062337944347105</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050406336410323</v>
+        <v>1.063508285222109</v>
       </c>
       <c r="J4">
-        <v>1.076511042660754</v>
+        <v>1.057279626617587</v>
       </c>
       <c r="K4">
-        <v>1.076657902056601</v>
+        <v>1.064217616696847</v>
       </c>
       <c r="L4">
-        <v>1.087146283050843</v>
+        <v>1.065183926714647</v>
       </c>
       <c r="M4">
-        <v>1.092223870542934</v>
+        <v>1.071738007863803</v>
       </c>
       <c r="N4">
-        <v>1.028917271206506</v>
+        <v>1.021212070998858</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.072567277764295</v>
+        <v>1.040849200867248</v>
       </c>
       <c r="D5">
-        <v>1.074606258122804</v>
+        <v>1.056375862726682</v>
       </c>
       <c r="E5">
-        <v>1.085186999559972</v>
+        <v>1.057619250448417</v>
       </c>
       <c r="F5">
-        <v>1.090271840302838</v>
+        <v>1.064227298294996</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050518279415545</v>
+        <v>1.064204720755776</v>
       </c>
       <c r="J5">
-        <v>1.076837248002072</v>
+        <v>1.058834256912067</v>
       </c>
       <c r="K5">
-        <v>1.076946626954748</v>
+        <v>1.065629603579479</v>
       </c>
       <c r="L5">
-        <v>1.087503425317982</v>
+        <v>1.066860224286605</v>
       </c>
       <c r="M5">
-        <v>1.092576936465576</v>
+        <v>1.073401030534965</v>
       </c>
       <c r="N5">
-        <v>1.029031968049303</v>
+        <v>1.021778939189115</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.072637860995288</v>
+        <v>1.041188034938458</v>
       </c>
       <c r="D6">
-        <v>1.074663197967509</v>
+        <v>1.056649305692395</v>
       </c>
       <c r="E6">
-        <v>1.085255366698659</v>
+        <v>1.057937283766755</v>
       </c>
       <c r="F6">
-        <v>1.090339477106216</v>
+        <v>1.064542752539014</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050537042309651</v>
+        <v>1.064320747015948</v>
       </c>
       <c r="J6">
-        <v>1.076891992730757</v>
+        <v>1.059093694757538</v>
       </c>
       <c r="K6">
-        <v>1.07699507556263</v>
+        <v>1.065865195862057</v>
       </c>
       <c r="L6">
-        <v>1.08756336775441</v>
+        <v>1.067140014220666</v>
       </c>
       <c r="M6">
-        <v>1.092636193931139</v>
+        <v>1.073678601490613</v>
       </c>
       <c r="N6">
-        <v>1.02905120950878</v>
+        <v>1.021873500592425</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.072152398302335</v>
+        <v>1.03884662504647</v>
       </c>
       <c r="D7">
-        <v>1.074271543061465</v>
+        <v>1.054759814936888</v>
       </c>
       <c r="E7">
-        <v>1.084785168225129</v>
+        <v>1.055740027355298</v>
       </c>
       <c r="F7">
-        <v>1.089874297853177</v>
+        <v>1.062363310117759</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050407834399785</v>
+        <v>1.063517652346937</v>
       </c>
       <c r="J7">
-        <v>1.076515403218195</v>
+        <v>1.057300507237411</v>
       </c>
       <c r="K7">
-        <v>1.076661761998256</v>
+        <v>1.064236584191951</v>
       </c>
       <c r="L7">
-        <v>1.087151056770692</v>
+        <v>1.06520643823437</v>
       </c>
       <c r="M7">
-        <v>1.092228589830177</v>
+        <v>1.071760341325644</v>
       </c>
       <c r="N7">
-        <v>1.028918804908219</v>
+        <v>1.021219687282267</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.070120220228058</v>
+        <v>1.028758649476526</v>
       </c>
       <c r="D8">
-        <v>1.072631315864044</v>
+        <v>1.046621017734191</v>
       </c>
       <c r="E8">
-        <v>1.082817445627532</v>
+        <v>1.046284209003421</v>
       </c>
       <c r="F8">
-        <v>1.087927488837407</v>
+        <v>1.052984117218203</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049862998081271</v>
+        <v>1.060024209634611</v>
       </c>
       <c r="J8">
-        <v>1.074937430126083</v>
+        <v>1.049564287914157</v>
       </c>
       <c r="K8">
-        <v>1.075264248449352</v>
+        <v>1.057204444844798</v>
       </c>
       <c r="L8">
-        <v>1.08542424335122</v>
+        <v>1.056871708905811</v>
       </c>
       <c r="M8">
-        <v>1.090521374208528</v>
+        <v>1.063491206817195</v>
       </c>
       <c r="N8">
-        <v>1.028362951165024</v>
+        <v>1.01839356087782</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.066527314215535</v>
+        <v>1.009692839622997</v>
       </c>
       <c r="D9">
-        <v>1.069728673861391</v>
+        <v>1.03125504723039</v>
       </c>
       <c r="E9">
-        <v>1.07934064985487</v>
+        <v>1.028461866382264</v>
       </c>
       <c r="F9">
-        <v>1.084487310360036</v>
+        <v>1.035306919331939</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048884784461355</v>
+        <v>1.053297058582326</v>
       </c>
       <c r="J9">
-        <v>1.072141754263163</v>
+        <v>1.034907901258555</v>
       </c>
       <c r="K9">
-        <v>1.072785012466049</v>
+        <v>1.043860598739495</v>
       </c>
       <c r="L9">
-        <v>1.082368037838703</v>
+        <v>1.041109450858202</v>
       </c>
       <c r="M9">
-        <v>1.087499426627026</v>
+        <v>1.047852009058819</v>
       </c>
       <c r="N9">
-        <v>1.027374180162719</v>
+        <v>1.013020536123289</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.064123489124628</v>
+        <v>0.9959454840171388</v>
       </c>
       <c r="D10">
-        <v>1.067784905997717</v>
+        <v>1.020195013292645</v>
       </c>
       <c r="E10">
-        <v>1.077015997014792</v>
+        <v>1.015650678064117</v>
       </c>
       <c r="F10">
-        <v>1.082186923432553</v>
+        <v>1.022601502304873</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048220284457435</v>
+        <v>1.048366363911509</v>
       </c>
       <c r="J10">
-        <v>1.070267430203518</v>
+        <v>1.024320895635074</v>
       </c>
       <c r="K10">
-        <v>1.071120656634679</v>
+        <v>1.034208968938505</v>
       </c>
       <c r="L10">
-        <v>1.080321178486777</v>
+        <v>1.029742989676418</v>
       </c>
       <c r="M10">
-        <v>1.085475230902013</v>
+        <v>1.036574328175583</v>
       </c>
       <c r="N10">
-        <v>1.026708616564562</v>
+        <v>1.00912880268657</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.063080460854707</v>
+        <v>0.9897016979235219</v>
       </c>
       <c r="D11">
-        <v>1.066941093132331</v>
+        <v>1.015178652133038</v>
       </c>
       <c r="E11">
-        <v>1.076007683942269</v>
+        <v>1.009843135762233</v>
       </c>
       <c r="F11">
-        <v>1.081189085954198</v>
+        <v>1.016842495469711</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047929581508114</v>
+        <v>1.046109182076052</v>
       </c>
       <c r="J11">
-        <v>1.069453238142387</v>
+        <v>1.01950926385531</v>
       </c>
       <c r="K11">
-        <v>1.070397159484684</v>
+        <v>1.029819887950235</v>
       </c>
       <c r="L11">
-        <v>1.079432544670458</v>
+        <v>1.024581782010931</v>
       </c>
       <c r="M11">
-        <v>1.084596371474035</v>
+        <v>1.03145362636595</v>
       </c>
       <c r="N11">
-        <v>1.026418874864942</v>
+        <v>1.007358152937185</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.062692699667028</v>
+        <v>0.9873342382086541</v>
       </c>
       <c r="D12">
-        <v>1.066627333441672</v>
+        <v>1.013277850024138</v>
       </c>
       <c r="E12">
-        <v>1.075632883791169</v>
+        <v>1.007642908890426</v>
       </c>
       <c r="F12">
-        <v>1.080818172372101</v>
+        <v>1.014660768824759</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047821152087778</v>
+        <v>1.045250781489148</v>
       </c>
       <c r="J12">
-        <v>1.069150412973148</v>
+        <v>1.017684479954537</v>
       </c>
       <c r="K12">
-        <v>1.070127989970217</v>
+        <v>1.028155013147025</v>
       </c>
       <c r="L12">
-        <v>1.079102108216591</v>
+        <v>1.02262513320922</v>
       </c>
       <c r="M12">
-        <v>1.084269559980762</v>
+        <v>1.029512380396746</v>
       </c>
       <c r="N12">
-        <v>1.026311016541865</v>
+        <v>1.006686411877639</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.062775891037605</v>
+        <v>0.9878443287594708</v>
       </c>
       <c r="D13">
-        <v>1.066694651011265</v>
+        <v>1.013687334612196</v>
       </c>
       <c r="E13">
-        <v>1.075713291957368</v>
+        <v>1.008116882609507</v>
       </c>
       <c r="F13">
-        <v>1.080897747057483</v>
+        <v>1.015130751737079</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047844430954299</v>
+        <v>1.045435844271575</v>
       </c>
       <c r="J13">
-        <v>1.069215388134867</v>
+        <v>1.018077659888929</v>
       </c>
       <c r="K13">
-        <v>1.070185747333331</v>
+        <v>1.028513752635925</v>
       </c>
       <c r="L13">
-        <v>1.079173004303302</v>
+        <v>1.023046693467602</v>
       </c>
       <c r="M13">
-        <v>1.08433967875515</v>
+        <v>1.029930619694184</v>
       </c>
       <c r="N13">
-        <v>1.026334163212908</v>
+        <v>1.006831159148914</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.063048415267209</v>
+        <v>0.9895070154082641</v>
       </c>
       <c r="D14">
-        <v>1.066915164432791</v>
+        <v>1.015022317349784</v>
       </c>
       <c r="E14">
-        <v>1.075976708359317</v>
+        <v>1.009662167327149</v>
       </c>
       <c r="F14">
-        <v>1.081158431727391</v>
+        <v>1.016663046252992</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04792062788458</v>
+        <v>1.046038644299377</v>
       </c>
       <c r="J14">
-        <v>1.069428214683334</v>
+        <v>1.019359213415185</v>
       </c>
       <c r="K14">
-        <v>1.070374918669275</v>
+        <v>1.029682993337186</v>
       </c>
       <c r="L14">
-        <v>1.079405238046746</v>
+        <v>1.024420874001508</v>
       </c>
       <c r="M14">
-        <v>1.084569364605495</v>
+        <v>1.031293983974254</v>
       </c>
       <c r="N14">
-        <v>1.026409964079435</v>
+        <v>1.007302920603836</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.06321628187115</v>
+        <v>0.9905249135329222</v>
       </c>
       <c r="D15">
-        <v>1.067050986081334</v>
+        <v>1.015839766539631</v>
       </c>
       <c r="E15">
-        <v>1.07613897214701</v>
+        <v>1.010608436344631</v>
       </c>
       <c r="F15">
-        <v>1.081319011811037</v>
+        <v>1.017601376112442</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047967515682351</v>
+        <v>1.046407348747901</v>
       </c>
       <c r="J15">
-        <v>1.069559291173812</v>
+        <v>1.020143738989045</v>
       </c>
       <c r="K15">
-        <v>1.070491416129163</v>
+        <v>1.030398721254468</v>
       </c>
       <c r="L15">
-        <v>1.079548277197657</v>
+        <v>1.025262196293736</v>
       </c>
       <c r="M15">
-        <v>1.084710833168195</v>
+        <v>1.032128690879186</v>
       </c>
       <c r="N15">
-        <v>1.026456636225742</v>
+        <v>1.007591688931018</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.064192665187058</v>
+        <v>0.9963533602814776</v>
       </c>
       <c r="D16">
-        <v>1.067840861195685</v>
+        <v>1.020522868022933</v>
       </c>
       <c r="E16">
-        <v>1.077082878370861</v>
+        <v>1.01603029812125</v>
       </c>
       <c r="F16">
-        <v>1.082253108909581</v>
+        <v>1.022977963850459</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048239514607965</v>
+        <v>1.048513457855246</v>
       </c>
       <c r="J16">
-        <v>1.070321410064543</v>
+        <v>1.024635160147483</v>
       </c>
       <c r="K16">
-        <v>1.071168612764928</v>
+        <v>1.034495585829085</v>
       </c>
       <c r="L16">
-        <v>1.080380104393251</v>
+        <v>1.030080183381185</v>
       </c>
       <c r="M16">
-        <v>1.085533507307008</v>
+        <v>1.036908880972981</v>
       </c>
       <c r="N16">
-        <v>1.026727812912825</v>
+        <v>1.009244414972842</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.064804540270699</v>
+        <v>0.9999284703881455</v>
       </c>
       <c r="D17">
-        <v>1.068335748676058</v>
+        <v>1.023397374638004</v>
       </c>
       <c r="E17">
-        <v>1.077674498228059</v>
+        <v>1.019358999511463</v>
       </c>
       <c r="F17">
-        <v>1.082838567435495</v>
+        <v>1.026279038598005</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048409334939922</v>
+        <v>1.049800777227394</v>
       </c>
       <c r="J17">
-        <v>1.07079876626005</v>
+        <v>1.027389397651114</v>
       </c>
       <c r="K17">
-        <v>1.071592640541492</v>
+        <v>1.03700723379416</v>
       </c>
       <c r="L17">
-        <v>1.080901257984385</v>
+        <v>1.033035901056037</v>
       </c>
       <c r="M17">
-        <v>1.086048909092771</v>
+        <v>1.039841473077948</v>
       </c>
       <c r="N17">
-        <v>1.02689749843683</v>
+        <v>1.010257440008002</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.065161229305844</v>
+        <v>1.00198602160291</v>
       </c>
       <c r="D18">
-        <v>1.068624201358257</v>
+        <v>1.025052344777363</v>
       </c>
       <c r="E18">
-        <v>1.078019414438012</v>
+        <v>1.021275762256693</v>
       </c>
       <c r="F18">
-        <v>1.083179886770424</v>
+        <v>1.02817994656235</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048508101915399</v>
+        <v>1.050539983592212</v>
       </c>
       <c r="J18">
-        <v>1.07107694997155</v>
+        <v>1.028974208827067</v>
       </c>
       <c r="K18">
-        <v>1.071839697132633</v>
+        <v>1.03845221365419</v>
       </c>
       <c r="L18">
-        <v>1.08120501378331</v>
+        <v>1.034737083137485</v>
       </c>
       <c r="M18">
-        <v>1.086349306174168</v>
+        <v>1.041529361947422</v>
       </c>
       <c r="N18">
-        <v>1.026996323933287</v>
+        <v>1.010840159583636</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.065282816183647</v>
+        <v>1.002683013217304</v>
       </c>
       <c r="D19">
-        <v>1.068722521407018</v>
+        <v>1.025613063819146</v>
       </c>
       <c r="E19">
-        <v>1.078136994124438</v>
+        <v>1.021925231462137</v>
       </c>
       <c r="F19">
-        <v>1.083296239486917</v>
+        <v>1.028824051992826</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04854173042725</v>
+        <v>1.050790101135479</v>
       </c>
       <c r="J19">
-        <v>1.071171761243733</v>
+        <v>1.029511004429586</v>
       </c>
       <c r="K19">
-        <v>1.071923891175108</v>
+        <v>1.038941604124984</v>
       </c>
       <c r="L19">
-        <v>1.08130854886713</v>
+        <v>1.035313369057404</v>
       </c>
       <c r="M19">
-        <v>1.086451695373943</v>
+        <v>1.042101147077652</v>
       </c>
       <c r="N19">
-        <v>1.027029995649616</v>
+        <v>1.011037501403713</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.064738913385276</v>
+        <v>0.999547795768257</v>
       </c>
       <c r="D20">
-        <v>1.068282673376913</v>
+        <v>1.023091232607503</v>
       </c>
       <c r="E20">
-        <v>1.077611040214256</v>
+        <v>1.019004454641693</v>
       </c>
       <c r="F20">
-        <v>1.082775770790596</v>
+        <v>1.025927430567414</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048391144467165</v>
+        <v>1.049663877695987</v>
       </c>
       <c r="J20">
-        <v>1.07074757638121</v>
+        <v>1.027096160266235</v>
       </c>
       <c r="K20">
-        <v>1.071547174519781</v>
+        <v>1.03673984936232</v>
       </c>
       <c r="L20">
-        <v>1.080845366393288</v>
+        <v>1.032721166994402</v>
       </c>
       <c r="M20">
-        <v>1.085993635006238</v>
+        <v>1.039529199627881</v>
       </c>
       <c r="N20">
-        <v>1.026879308238235</v>
+        <v>1.010149604242883</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.062968172977017</v>
+        <v>0.9890187667248943</v>
       </c>
       <c r="D21">
-        <v>1.066850237894862</v>
+        <v>1.014630262757799</v>
       </c>
       <c r="E21">
-        <v>1.075899146258413</v>
+        <v>1.009208342363076</v>
       </c>
       <c r="F21">
-        <v>1.08108167417677</v>
+        <v>1.016213033011281</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047898202219163</v>
+        <v>1.045861700576652</v>
       </c>
       <c r="J21">
-        <v>1.069365553618359</v>
+        <v>1.018982893283243</v>
       </c>
       <c r="K21">
-        <v>1.070319224363273</v>
+        <v>1.029339662141151</v>
       </c>
       <c r="L21">
-        <v>1.079336860954268</v>
+        <v>1.024017334981022</v>
       </c>
       <c r="M21">
-        <v>1.084501737959338</v>
+        <v>1.030893619795495</v>
       </c>
       <c r="N21">
-        <v>1.02638764913263</v>
+        <v>1.007164396723667</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.061852900441199</v>
+        <v>0.9821169170739422</v>
       </c>
       <c r="D22">
-        <v>1.065947695825472</v>
+        <v>1.009091513877877</v>
       </c>
       <c r="E22">
-        <v>1.074821256819835</v>
+        <v>1.002797690704946</v>
       </c>
       <c r="F22">
-        <v>1.080014948520852</v>
+        <v>1.00985652726325</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047585668166442</v>
+        <v>1.043354523119298</v>
       </c>
       <c r="J22">
-        <v>1.068494314542606</v>
+        <v>1.013662589673308</v>
       </c>
       <c r="K22">
-        <v>1.069544669461212</v>
+        <v>1.024484992273901</v>
       </c>
       <c r="L22">
-        <v>1.078386326657866</v>
+        <v>1.018313927787526</v>
       </c>
       <c r="M22">
-        <v>1.083561613237493</v>
+        <v>1.025235220993878</v>
       </c>
       <c r="N22">
-        <v>1.026077160472442</v>
+        <v>1.005205507931246</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.062444314586896</v>
+        <v>0.985804114162358</v>
       </c>
       <c r="D23">
-        <v>1.066426334214278</v>
+        <v>1.012049716937739</v>
       </c>
       <c r="E23">
-        <v>1.07539281667764</v>
+        <v>1.006221405550503</v>
       </c>
       <c r="F23">
-        <v>1.080580592644376</v>
+        <v>1.013251252855773</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047751596062148</v>
+        <v>1.044695284139452</v>
       </c>
       <c r="J23">
-        <v>1.068956396098116</v>
+        <v>1.01650501270424</v>
       </c>
       <c r="K23">
-        <v>1.069955514338535</v>
+        <v>1.027078814582099</v>
       </c>
       <c r="L23">
-        <v>1.078890422508296</v>
+        <v>1.021360634911953</v>
       </c>
       <c r="M23">
-        <v>1.084060193818016</v>
+        <v>1.028257851892161</v>
       </c>
       <c r="N23">
-        <v>1.026241886510371</v>
+        <v>1.006252167325243</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.064768567990804</v>
+        <v>0.9997198916655431</v>
       </c>
       <c r="D24">
-        <v>1.068306656459271</v>
+        <v>1.023229631765886</v>
       </c>
       <c r="E24">
-        <v>1.077639714671238</v>
+        <v>1.019164734592724</v>
       </c>
       <c r="F24">
-        <v>1.082804146412948</v>
+        <v>1.02608638269021</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048399364843711</v>
+        <v>1.049725772629826</v>
       </c>
       <c r="J24">
-        <v>1.070770707656936</v>
+        <v>1.027228728394461</v>
       </c>
       <c r="K24">
-        <v>1.071567719497461</v>
+        <v>1.03686073052597</v>
       </c>
       <c r="L24">
-        <v>1.080870622090677</v>
+        <v>1.03286345208146</v>
       </c>
       <c r="M24">
-        <v>1.086018611691604</v>
+        <v>1.039670372269695</v>
       </c>
       <c r="N24">
-        <v>1.026887528067094</v>
+        <v>1.010198355714121</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.067457635905604</v>
+        <v>1.014790846163835</v>
       </c>
       <c r="D25">
-        <v>1.070480577914188</v>
+        <v>1.035361095503243</v>
       </c>
       <c r="E25">
-        <v>1.080240647762946</v>
+        <v>1.033221152515777</v>
       </c>
       <c r="F25">
-        <v>1.0853778683989</v>
+        <v>1.040027274093941</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049139842441006</v>
+        <v>1.055109802161704</v>
       </c>
       <c r="J25">
-        <v>1.072866331941258</v>
+        <v>1.038830490244371</v>
       </c>
       <c r="K25">
-        <v>1.073427961491892</v>
+        <v>1.047434200658217</v>
       </c>
       <c r="L25">
-        <v>1.083159764098281</v>
+        <v>1.04532474812723</v>
       </c>
       <c r="M25">
-        <v>1.08828232800347</v>
+        <v>1.052034443984439</v>
       </c>
       <c r="N25">
-        <v>1.027630915897657</v>
+        <v>1.014460518961456</v>
       </c>
     </row>
   </sheetData>
